--- a/2-foundations-of-inferential-statistics/housing-foundations.xlsx
+++ b/2-foundations-of-inferential-statistics/housing-foundations.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\statistics-for-business-analytics\2-foundations-of-inferential-statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7902F22-8FB8-4D68-914D-C056ECB6D8F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0284C69-D3DA-4C6A-8FA2-B28CEC1AAFAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="18240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -793,7 +793,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[housing.xlsx]air-conditioning!PivotTable3</c:name>
+    <c:name>[housing-foundations.xlsx]air-conditioning!PivotTable3</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -11054,1854 +11054,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{98AEBD24-6BAE-4B81-BB16-353814422978}" name="PivotTable3" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="U21:W39" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="13">
-    <pivotField dataField="1" showAll="0">
-      <items count="547">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="138"/>
-        <item x="139"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="152"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="155"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="160"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="165"/>
-        <item x="166"/>
-        <item x="167"/>
-        <item x="168"/>
-        <item x="169"/>
-        <item x="170"/>
-        <item x="171"/>
-        <item x="172"/>
-        <item x="173"/>
-        <item x="174"/>
-        <item x="175"/>
-        <item x="176"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="179"/>
-        <item x="180"/>
-        <item x="181"/>
-        <item x="182"/>
-        <item x="183"/>
-        <item x="184"/>
-        <item x="185"/>
-        <item x="186"/>
-        <item x="187"/>
-        <item x="188"/>
-        <item x="189"/>
-        <item x="190"/>
-        <item x="191"/>
-        <item x="192"/>
-        <item x="193"/>
-        <item x="194"/>
-        <item x="195"/>
-        <item x="196"/>
-        <item x="197"/>
-        <item x="198"/>
-        <item x="199"/>
-        <item x="200"/>
-        <item x="201"/>
-        <item x="202"/>
-        <item x="203"/>
-        <item x="204"/>
-        <item x="205"/>
-        <item x="206"/>
-        <item x="207"/>
-        <item x="208"/>
-        <item x="209"/>
-        <item x="210"/>
-        <item x="211"/>
-        <item x="212"/>
-        <item x="213"/>
-        <item x="214"/>
-        <item x="215"/>
-        <item x="216"/>
-        <item x="217"/>
-        <item x="218"/>
-        <item x="219"/>
-        <item x="220"/>
-        <item x="221"/>
-        <item x="222"/>
-        <item x="223"/>
-        <item x="224"/>
-        <item x="225"/>
-        <item x="226"/>
-        <item x="227"/>
-        <item x="228"/>
-        <item x="229"/>
-        <item x="230"/>
-        <item x="231"/>
-        <item x="232"/>
-        <item x="233"/>
-        <item x="234"/>
-        <item x="235"/>
-        <item x="236"/>
-        <item x="237"/>
-        <item x="238"/>
-        <item x="239"/>
-        <item x="240"/>
-        <item x="241"/>
-        <item x="242"/>
-        <item x="243"/>
-        <item x="244"/>
-        <item x="245"/>
-        <item x="246"/>
-        <item x="247"/>
-        <item x="248"/>
-        <item x="249"/>
-        <item x="250"/>
-        <item x="251"/>
-        <item x="252"/>
-        <item x="253"/>
-        <item x="254"/>
-        <item x="255"/>
-        <item x="256"/>
-        <item x="257"/>
-        <item x="258"/>
-        <item x="259"/>
-        <item x="260"/>
-        <item x="261"/>
-        <item x="262"/>
-        <item x="263"/>
-        <item x="264"/>
-        <item x="265"/>
-        <item x="266"/>
-        <item x="267"/>
-        <item x="268"/>
-        <item x="269"/>
-        <item x="270"/>
-        <item x="271"/>
-        <item x="272"/>
-        <item x="273"/>
-        <item x="274"/>
-        <item x="275"/>
-        <item x="276"/>
-        <item x="277"/>
-        <item x="278"/>
-        <item x="279"/>
-        <item x="280"/>
-        <item x="281"/>
-        <item x="282"/>
-        <item x="283"/>
-        <item x="284"/>
-        <item x="285"/>
-        <item x="286"/>
-        <item x="287"/>
-        <item x="288"/>
-        <item x="289"/>
-        <item x="290"/>
-        <item x="291"/>
-        <item x="292"/>
-        <item x="293"/>
-        <item x="294"/>
-        <item x="295"/>
-        <item x="296"/>
-        <item x="297"/>
-        <item x="298"/>
-        <item x="299"/>
-        <item x="300"/>
-        <item x="301"/>
-        <item x="302"/>
-        <item x="303"/>
-        <item x="304"/>
-        <item x="305"/>
-        <item x="306"/>
-        <item x="307"/>
-        <item x="308"/>
-        <item x="309"/>
-        <item x="310"/>
-        <item x="311"/>
-        <item x="312"/>
-        <item x="313"/>
-        <item x="314"/>
-        <item x="315"/>
-        <item x="316"/>
-        <item x="317"/>
-        <item x="318"/>
-        <item x="319"/>
-        <item x="320"/>
-        <item x="321"/>
-        <item x="322"/>
-        <item x="323"/>
-        <item x="324"/>
-        <item x="325"/>
-        <item x="326"/>
-        <item x="327"/>
-        <item x="328"/>
-        <item x="329"/>
-        <item x="330"/>
-        <item x="331"/>
-        <item x="332"/>
-        <item x="333"/>
-        <item x="334"/>
-        <item x="335"/>
-        <item x="336"/>
-        <item x="337"/>
-        <item x="338"/>
-        <item x="339"/>
-        <item x="340"/>
-        <item x="341"/>
-        <item x="342"/>
-        <item x="343"/>
-        <item x="344"/>
-        <item x="345"/>
-        <item x="346"/>
-        <item x="347"/>
-        <item x="348"/>
-        <item x="349"/>
-        <item x="350"/>
-        <item x="351"/>
-        <item x="352"/>
-        <item x="353"/>
-        <item x="354"/>
-        <item x="355"/>
-        <item x="356"/>
-        <item x="357"/>
-        <item x="358"/>
-        <item x="359"/>
-        <item x="360"/>
-        <item x="361"/>
-        <item x="362"/>
-        <item x="363"/>
-        <item x="364"/>
-        <item x="365"/>
-        <item x="366"/>
-        <item x="367"/>
-        <item x="368"/>
-        <item x="369"/>
-        <item x="370"/>
-        <item x="371"/>
-        <item x="372"/>
-        <item x="373"/>
-        <item x="374"/>
-        <item x="375"/>
-        <item x="376"/>
-        <item x="377"/>
-        <item x="378"/>
-        <item x="379"/>
-        <item x="380"/>
-        <item x="381"/>
-        <item x="382"/>
-        <item x="383"/>
-        <item x="384"/>
-        <item x="385"/>
-        <item x="386"/>
-        <item x="387"/>
-        <item x="388"/>
-        <item x="389"/>
-        <item x="390"/>
-        <item x="391"/>
-        <item x="392"/>
-        <item x="393"/>
-        <item x="394"/>
-        <item x="395"/>
-        <item x="396"/>
-        <item x="397"/>
-        <item x="398"/>
-        <item x="399"/>
-        <item x="400"/>
-        <item x="401"/>
-        <item x="402"/>
-        <item x="403"/>
-        <item x="404"/>
-        <item x="405"/>
-        <item x="406"/>
-        <item x="407"/>
-        <item x="408"/>
-        <item x="409"/>
-        <item x="410"/>
-        <item x="411"/>
-        <item x="412"/>
-        <item x="413"/>
-        <item x="414"/>
-        <item x="415"/>
-        <item x="416"/>
-        <item x="417"/>
-        <item x="418"/>
-        <item x="419"/>
-        <item x="420"/>
-        <item x="421"/>
-        <item x="422"/>
-        <item x="423"/>
-        <item x="424"/>
-        <item x="425"/>
-        <item x="426"/>
-        <item x="427"/>
-        <item x="428"/>
-        <item x="429"/>
-        <item x="430"/>
-        <item x="431"/>
-        <item x="432"/>
-        <item x="433"/>
-        <item x="434"/>
-        <item x="435"/>
-        <item x="436"/>
-        <item x="437"/>
-        <item x="438"/>
-        <item x="439"/>
-        <item x="440"/>
-        <item x="441"/>
-        <item x="442"/>
-        <item x="443"/>
-        <item x="444"/>
-        <item x="445"/>
-        <item x="446"/>
-        <item x="447"/>
-        <item x="448"/>
-        <item x="449"/>
-        <item x="450"/>
-        <item x="451"/>
-        <item x="452"/>
-        <item x="453"/>
-        <item x="454"/>
-        <item x="455"/>
-        <item x="456"/>
-        <item x="457"/>
-        <item x="458"/>
-        <item x="459"/>
-        <item x="460"/>
-        <item x="461"/>
-        <item x="462"/>
-        <item x="463"/>
-        <item x="464"/>
-        <item x="465"/>
-        <item x="466"/>
-        <item x="467"/>
-        <item x="468"/>
-        <item x="469"/>
-        <item x="470"/>
-        <item x="471"/>
-        <item x="472"/>
-        <item x="473"/>
-        <item x="474"/>
-        <item x="475"/>
-        <item x="476"/>
-        <item x="477"/>
-        <item x="478"/>
-        <item x="479"/>
-        <item x="480"/>
-        <item x="481"/>
-        <item x="482"/>
-        <item x="483"/>
-        <item x="484"/>
-        <item x="485"/>
-        <item x="486"/>
-        <item x="487"/>
-        <item x="488"/>
-        <item x="489"/>
-        <item x="490"/>
-        <item x="491"/>
-        <item x="492"/>
-        <item x="493"/>
-        <item x="494"/>
-        <item x="495"/>
-        <item x="496"/>
-        <item x="497"/>
-        <item x="498"/>
-        <item x="499"/>
-        <item x="500"/>
-        <item x="501"/>
-        <item x="502"/>
-        <item x="503"/>
-        <item x="504"/>
-        <item x="505"/>
-        <item x="506"/>
-        <item x="507"/>
-        <item x="508"/>
-        <item x="509"/>
-        <item x="510"/>
-        <item x="511"/>
-        <item x="512"/>
-        <item x="513"/>
-        <item x="514"/>
-        <item x="515"/>
-        <item x="516"/>
-        <item x="517"/>
-        <item x="518"/>
-        <item x="519"/>
-        <item x="520"/>
-        <item x="521"/>
-        <item x="522"/>
-        <item x="523"/>
-        <item x="524"/>
-        <item x="525"/>
-        <item x="526"/>
-        <item x="527"/>
-        <item x="528"/>
-        <item x="529"/>
-        <item x="530"/>
-        <item x="531"/>
-        <item x="532"/>
-        <item x="533"/>
-        <item x="534"/>
-        <item x="535"/>
-        <item x="536"/>
-        <item x="537"/>
-        <item x="538"/>
-        <item x="539"/>
-        <item x="540"/>
-        <item x="541"/>
-        <item x="542"/>
-        <item x="543"/>
-        <item x="544"/>
-        <item x="545"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="20">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="17">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="10"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of id" fld="0" subtotal="count" baseField="1" baseItem="3"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="10" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="10" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{11695526-25E9-4E93-B54D-C5480D443BD2}" name="PivotTable2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="R3:S176" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="13">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="547">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="47"/>
-        <item x="48"/>
-        <item x="49"/>
-        <item x="50"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="83"/>
-        <item x="84"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="87"/>
-        <item x="88"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="118"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="121"/>
-        <item x="122"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="137"/>
-        <item x="138"/>
-        <item x="139"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="149"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="152"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="155"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="160"/>
-        <item x="161"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="165"/>
-        <item x="166"/>
-        <item x="167"/>
-        <item x="168"/>
-        <item x="169"/>
-        <item x="170"/>
-        <item x="171"/>
-        <item x="172"/>
-        <item x="173"/>
-        <item x="174"/>
-        <item x="175"/>
-        <item x="176"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="179"/>
-        <item x="180"/>
-        <item x="181"/>
-        <item x="182"/>
-        <item x="183"/>
-        <item x="184"/>
-        <item x="185"/>
-        <item x="186"/>
-        <item x="187"/>
-        <item x="188"/>
-        <item x="189"/>
-        <item x="190"/>
-        <item x="191"/>
-        <item x="192"/>
-        <item x="193"/>
-        <item x="194"/>
-        <item x="195"/>
-        <item x="196"/>
-        <item x="197"/>
-        <item x="198"/>
-        <item x="199"/>
-        <item x="200"/>
-        <item x="201"/>
-        <item x="202"/>
-        <item x="203"/>
-        <item x="204"/>
-        <item x="205"/>
-        <item x="206"/>
-        <item x="207"/>
-        <item x="208"/>
-        <item x="209"/>
-        <item x="210"/>
-        <item x="211"/>
-        <item x="212"/>
-        <item x="213"/>
-        <item x="214"/>
-        <item x="215"/>
-        <item x="216"/>
-        <item x="217"/>
-        <item x="218"/>
-        <item x="219"/>
-        <item x="220"/>
-        <item x="221"/>
-        <item x="222"/>
-        <item x="223"/>
-        <item x="224"/>
-        <item x="225"/>
-        <item x="226"/>
-        <item x="227"/>
-        <item x="228"/>
-        <item x="229"/>
-        <item x="230"/>
-        <item x="231"/>
-        <item x="232"/>
-        <item x="233"/>
-        <item x="234"/>
-        <item x="235"/>
-        <item x="236"/>
-        <item x="237"/>
-        <item x="238"/>
-        <item x="239"/>
-        <item x="240"/>
-        <item x="241"/>
-        <item x="242"/>
-        <item x="243"/>
-        <item x="244"/>
-        <item x="245"/>
-        <item x="246"/>
-        <item x="247"/>
-        <item x="248"/>
-        <item x="249"/>
-        <item x="250"/>
-        <item x="251"/>
-        <item x="252"/>
-        <item x="253"/>
-        <item x="254"/>
-        <item x="255"/>
-        <item x="256"/>
-        <item x="257"/>
-        <item x="258"/>
-        <item x="259"/>
-        <item x="260"/>
-        <item x="261"/>
-        <item x="262"/>
-        <item x="263"/>
-        <item x="264"/>
-        <item x="265"/>
-        <item x="266"/>
-        <item x="267"/>
-        <item x="268"/>
-        <item x="269"/>
-        <item x="270"/>
-        <item x="271"/>
-        <item x="272"/>
-        <item x="273"/>
-        <item x="274"/>
-        <item x="275"/>
-        <item x="276"/>
-        <item x="277"/>
-        <item x="278"/>
-        <item x="279"/>
-        <item x="280"/>
-        <item x="281"/>
-        <item x="282"/>
-        <item x="283"/>
-        <item x="284"/>
-        <item x="285"/>
-        <item x="286"/>
-        <item x="287"/>
-        <item x="288"/>
-        <item x="289"/>
-        <item x="290"/>
-        <item x="291"/>
-        <item x="292"/>
-        <item x="293"/>
-        <item x="294"/>
-        <item x="295"/>
-        <item x="296"/>
-        <item x="297"/>
-        <item x="298"/>
-        <item x="299"/>
-        <item x="300"/>
-        <item x="301"/>
-        <item x="302"/>
-        <item x="303"/>
-        <item x="304"/>
-        <item x="305"/>
-        <item x="306"/>
-        <item x="307"/>
-        <item x="308"/>
-        <item x="309"/>
-        <item x="310"/>
-        <item x="311"/>
-        <item x="312"/>
-        <item x="313"/>
-        <item x="314"/>
-        <item x="315"/>
-        <item x="316"/>
-        <item x="317"/>
-        <item x="318"/>
-        <item x="319"/>
-        <item x="320"/>
-        <item x="321"/>
-        <item x="322"/>
-        <item x="323"/>
-        <item x="324"/>
-        <item x="325"/>
-        <item x="326"/>
-        <item x="327"/>
-        <item x="328"/>
-        <item x="329"/>
-        <item x="330"/>
-        <item x="331"/>
-        <item x="332"/>
-        <item x="333"/>
-        <item x="334"/>
-        <item x="335"/>
-        <item x="336"/>
-        <item x="337"/>
-        <item x="338"/>
-        <item x="339"/>
-        <item x="340"/>
-        <item x="341"/>
-        <item x="342"/>
-        <item x="343"/>
-        <item x="344"/>
-        <item x="345"/>
-        <item x="346"/>
-        <item x="347"/>
-        <item x="348"/>
-        <item x="349"/>
-        <item x="350"/>
-        <item x="351"/>
-        <item x="352"/>
-        <item x="353"/>
-        <item x="354"/>
-        <item x="355"/>
-        <item x="356"/>
-        <item x="357"/>
-        <item x="358"/>
-        <item x="359"/>
-        <item x="360"/>
-        <item x="361"/>
-        <item x="362"/>
-        <item x="363"/>
-        <item x="364"/>
-        <item x="365"/>
-        <item x="366"/>
-        <item x="367"/>
-        <item x="368"/>
-        <item x="369"/>
-        <item x="370"/>
-        <item x="371"/>
-        <item x="372"/>
-        <item x="373"/>
-        <item x="374"/>
-        <item x="375"/>
-        <item x="376"/>
-        <item x="377"/>
-        <item x="378"/>
-        <item x="379"/>
-        <item x="380"/>
-        <item x="381"/>
-        <item x="382"/>
-        <item x="383"/>
-        <item x="384"/>
-        <item x="385"/>
-        <item x="386"/>
-        <item x="387"/>
-        <item x="388"/>
-        <item x="389"/>
-        <item x="390"/>
-        <item x="391"/>
-        <item x="392"/>
-        <item x="393"/>
-        <item x="394"/>
-        <item x="395"/>
-        <item x="396"/>
-        <item x="397"/>
-        <item x="398"/>
-        <item x="399"/>
-        <item x="400"/>
-        <item x="401"/>
-        <item x="402"/>
-        <item x="403"/>
-        <item x="404"/>
-        <item x="405"/>
-        <item x="406"/>
-        <item x="407"/>
-        <item x="408"/>
-        <item x="409"/>
-        <item x="410"/>
-        <item x="411"/>
-        <item x="412"/>
-        <item x="413"/>
-        <item x="414"/>
-        <item x="415"/>
-        <item x="416"/>
-        <item x="417"/>
-        <item x="418"/>
-        <item x="419"/>
-        <item x="420"/>
-        <item x="421"/>
-        <item x="422"/>
-        <item x="423"/>
-        <item x="424"/>
-        <item x="425"/>
-        <item x="426"/>
-        <item x="427"/>
-        <item x="428"/>
-        <item x="429"/>
-        <item x="430"/>
-        <item x="431"/>
-        <item x="432"/>
-        <item x="433"/>
-        <item x="434"/>
-        <item x="435"/>
-        <item x="436"/>
-        <item x="437"/>
-        <item x="438"/>
-        <item x="439"/>
-        <item x="440"/>
-        <item x="441"/>
-        <item x="442"/>
-        <item x="443"/>
-        <item x="444"/>
-        <item x="445"/>
-        <item x="446"/>
-        <item x="447"/>
-        <item x="448"/>
-        <item x="449"/>
-        <item x="450"/>
-        <item x="451"/>
-        <item x="452"/>
-        <item x="453"/>
-        <item x="454"/>
-        <item x="455"/>
-        <item x="456"/>
-        <item x="457"/>
-        <item x="458"/>
-        <item x="459"/>
-        <item x="460"/>
-        <item x="461"/>
-        <item x="462"/>
-        <item x="463"/>
-        <item x="464"/>
-        <item x="465"/>
-        <item x="466"/>
-        <item x="467"/>
-        <item x="468"/>
-        <item x="469"/>
-        <item x="470"/>
-        <item x="471"/>
-        <item x="472"/>
-        <item x="473"/>
-        <item x="474"/>
-        <item x="475"/>
-        <item x="476"/>
-        <item x="477"/>
-        <item x="478"/>
-        <item x="479"/>
-        <item x="480"/>
-        <item x="481"/>
-        <item x="482"/>
-        <item x="483"/>
-        <item x="484"/>
-        <item x="485"/>
-        <item x="486"/>
-        <item x="487"/>
-        <item x="488"/>
-        <item x="489"/>
-        <item x="490"/>
-        <item x="491"/>
-        <item x="492"/>
-        <item x="493"/>
-        <item x="494"/>
-        <item x="495"/>
-        <item x="496"/>
-        <item x="497"/>
-        <item x="498"/>
-        <item x="499"/>
-        <item x="500"/>
-        <item x="501"/>
-        <item x="502"/>
-        <item x="503"/>
-        <item x="504"/>
-        <item x="505"/>
-        <item x="506"/>
-        <item x="507"/>
-        <item x="508"/>
-        <item x="509"/>
-        <item x="510"/>
-        <item x="511"/>
-        <item x="512"/>
-        <item x="513"/>
-        <item x="514"/>
-        <item x="515"/>
-        <item x="516"/>
-        <item x="517"/>
-        <item x="518"/>
-        <item x="519"/>
-        <item x="520"/>
-        <item x="521"/>
-        <item x="522"/>
-        <item x="523"/>
-        <item x="524"/>
-        <item x="525"/>
-        <item x="526"/>
-        <item x="527"/>
-        <item x="528"/>
-        <item x="529"/>
-        <item x="530"/>
-        <item x="531"/>
-        <item x="532"/>
-        <item x="533"/>
-        <item x="534"/>
-        <item x="535"/>
-        <item x="536"/>
-        <item x="537"/>
-        <item x="538"/>
-        <item x="539"/>
-        <item x="540"/>
-        <item x="541"/>
-        <item x="542"/>
-        <item x="543"/>
-        <item x="544"/>
-        <item x="545"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0">
-      <items count="20">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="173">
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="38"/>
-    </i>
-    <i>
-      <x v="41"/>
-    </i>
-    <i>
-      <x v="52"/>
-    </i>
-    <i>
-      <x v="62"/>
-    </i>
-    <i>
-      <x v="65"/>
-    </i>
-    <i>
-      <x v="66"/>
-    </i>
-    <i>
-      <x v="67"/>
-    </i>
-    <i>
-      <x v="68"/>
-    </i>
-    <i>
-      <x v="69"/>
-    </i>
-    <i>
-      <x v="77"/>
-    </i>
-    <i>
-      <x v="79"/>
-    </i>
-    <i>
-      <x v="80"/>
-    </i>
-    <i>
-      <x v="85"/>
-    </i>
-    <i>
-      <x v="87"/>
-    </i>
-    <i>
-      <x v="92"/>
-    </i>
-    <i>
-      <x v="93"/>
-    </i>
-    <i>
-      <x v="94"/>
-    </i>
-    <i>
-      <x v="100"/>
-    </i>
-    <i>
-      <x v="106"/>
-    </i>
-    <i>
-      <x v="112"/>
-    </i>
-    <i>
-      <x v="113"/>
-    </i>
-    <i>
-      <x v="114"/>
-    </i>
-    <i>
-      <x v="115"/>
-    </i>
-    <i>
-      <x v="117"/>
-    </i>
-    <i>
-      <x v="119"/>
-    </i>
-    <i>
-      <x v="127"/>
-    </i>
-    <i>
-      <x v="128"/>
-    </i>
-    <i>
-      <x v="129"/>
-    </i>
-    <i>
-      <x v="144"/>
-    </i>
-    <i>
-      <x v="146"/>
-    </i>
-    <i>
-      <x v="156"/>
-    </i>
-    <i>
-      <x v="160"/>
-    </i>
-    <i>
-      <x v="166"/>
-    </i>
-    <i>
-      <x v="168"/>
-    </i>
-    <i>
-      <x v="177"/>
-    </i>
-    <i>
-      <x v="189"/>
-    </i>
-    <i>
-      <x v="191"/>
-    </i>
-    <i>
-      <x v="193"/>
-    </i>
-    <i>
-      <x v="201"/>
-    </i>
-    <i>
-      <x v="202"/>
-    </i>
-    <i>
-      <x v="221"/>
-    </i>
-    <i>
-      <x v="225"/>
-    </i>
-    <i>
-      <x v="226"/>
-    </i>
-    <i>
-      <x v="228"/>
-    </i>
-    <i>
-      <x v="230"/>
-    </i>
-    <i>
-      <x v="241"/>
-    </i>
-    <i>
-      <x v="253"/>
-    </i>
-    <i>
-      <x v="257"/>
-    </i>
-    <i>
-      <x v="269"/>
-    </i>
-    <i>
-      <x v="272"/>
-    </i>
-    <i>
-      <x v="274"/>
-    </i>
-    <i>
-      <x v="275"/>
-    </i>
-    <i>
-      <x v="276"/>
-    </i>
-    <i>
-      <x v="281"/>
-    </i>
-    <i>
-      <x v="282"/>
-    </i>
-    <i>
-      <x v="286"/>
-    </i>
-    <i>
-      <x v="301"/>
-    </i>
-    <i>
-      <x v="305"/>
-    </i>
-    <i>
-      <x v="308"/>
-    </i>
-    <i>
-      <x v="309"/>
-    </i>
-    <i>
-      <x v="312"/>
-    </i>
-    <i>
-      <x v="315"/>
-    </i>
-    <i>
-      <x v="317"/>
-    </i>
-    <i>
-      <x v="319"/>
-    </i>
-    <i>
-      <x v="320"/>
-    </i>
-    <i>
-      <x v="321"/>
-    </i>
-    <i>
-      <x v="322"/>
-    </i>
-    <i>
-      <x v="323"/>
-    </i>
-    <i>
-      <x v="325"/>
-    </i>
-    <i>
-      <x v="326"/>
-    </i>
-    <i>
-      <x v="327"/>
-    </i>
-    <i>
-      <x v="328"/>
-    </i>
-    <i>
-      <x v="330"/>
-    </i>
-    <i>
-      <x v="331"/>
-    </i>
-    <i>
-      <x v="336"/>
-    </i>
-    <i>
-      <x v="337"/>
-    </i>
-    <i>
-      <x v="338"/>
-    </i>
-    <i>
-      <x v="344"/>
-    </i>
-    <i>
-      <x v="356"/>
-    </i>
-    <i>
-      <x v="357"/>
-    </i>
-    <i>
-      <x v="359"/>
-    </i>
-    <i>
-      <x v="360"/>
-    </i>
-    <i>
-      <x v="361"/>
-    </i>
-    <i>
-      <x v="364"/>
-    </i>
-    <i>
-      <x v="366"/>
-    </i>
-    <i>
-      <x v="370"/>
-    </i>
-    <i>
-      <x v="371"/>
-    </i>
-    <i>
-      <x v="372"/>
-    </i>
-    <i>
-      <x v="373"/>
-    </i>
-    <i>
-      <x v="374"/>
-    </i>
-    <i>
-      <x v="375"/>
-    </i>
-    <i>
-      <x v="376"/>
-    </i>
-    <i>
-      <x v="377"/>
-    </i>
-    <i>
-      <x v="379"/>
-    </i>
-    <i>
-      <x v="380"/>
-    </i>
-    <i>
-      <x v="381"/>
-    </i>
-    <i>
-      <x v="382"/>
-    </i>
-    <i>
-      <x v="387"/>
-    </i>
-    <i>
-      <x v="389"/>
-    </i>
-    <i>
-      <x v="391"/>
-    </i>
-    <i>
-      <x v="392"/>
-    </i>
-    <i>
-      <x v="399"/>
-    </i>
-    <i>
-      <x v="400"/>
-    </i>
-    <i>
-      <x v="401"/>
-    </i>
-    <i>
-      <x v="402"/>
-    </i>
-    <i>
-      <x v="408"/>
-    </i>
-    <i>
-      <x v="409"/>
-    </i>
-    <i>
-      <x v="411"/>
-    </i>
-    <i>
-      <x v="412"/>
-    </i>
-    <i>
-      <x v="413"/>
-    </i>
-    <i>
-      <x v="415"/>
-    </i>
-    <i>
-      <x v="416"/>
-    </i>
-    <i>
-      <x v="418"/>
-    </i>
-    <i>
-      <x v="420"/>
-    </i>
-    <i>
-      <x v="421"/>
-    </i>
-    <i>
-      <x v="429"/>
-    </i>
-    <i>
-      <x v="434"/>
-    </i>
-    <i>
-      <x v="435"/>
-    </i>
-    <i>
-      <x v="439"/>
-    </i>
-    <i>
-      <x v="443"/>
-    </i>
-    <i>
-      <x v="444"/>
-    </i>
-    <i>
-      <x v="447"/>
-    </i>
-    <i>
-      <x v="451"/>
-    </i>
-    <i>
-      <x v="452"/>
-    </i>
-    <i>
-      <x v="456"/>
-    </i>
-    <i>
-      <x v="457"/>
-    </i>
-    <i>
-      <x v="465"/>
-    </i>
-    <i>
-      <x v="478"/>
-    </i>
-    <i>
-      <x v="481"/>
-    </i>
-    <i>
-      <x v="485"/>
-    </i>
-    <i>
-      <x v="494"/>
-    </i>
-    <i>
-      <x v="500"/>
-    </i>
-    <i>
-      <x v="501"/>
-    </i>
-    <i>
-      <x v="503"/>
-    </i>
-    <i>
-      <x v="507"/>
-    </i>
-    <i>
-      <x v="508"/>
-    </i>
-    <i>
-      <x v="512"/>
-    </i>
-    <i>
-      <x v="516"/>
-    </i>
-    <i>
-      <x v="517"/>
-    </i>
-    <i>
-      <x v="518"/>
-    </i>
-    <i>
-      <x v="520"/>
-    </i>
-    <i>
-      <x v="521"/>
-    </i>
-    <i>
-      <x v="522"/>
-    </i>
-    <i>
-      <x v="524"/>
-    </i>
-    <i>
-      <x v="525"/>
-    </i>
-    <i>
-      <x v="526"/>
-    </i>
-    <i>
-      <x v="527"/>
-    </i>
-    <i>
-      <x v="528"/>
-    </i>
-    <i>
-      <x v="529"/>
-    </i>
-    <i>
-      <x v="530"/>
-    </i>
-    <i>
-      <x v="531"/>
-    </i>
-    <i>
-      <x v="534"/>
-    </i>
-    <i>
-      <x v="535"/>
-    </i>
-    <i>
-      <x v="536"/>
-    </i>
-    <i>
-      <x v="537"/>
-    </i>
-    <i>
-      <x v="538"/>
-    </i>
-    <i>
-      <x v="541"/>
-    </i>
-    <i>
-      <x v="542"/>
-    </i>
-    <i>
-      <x v="543"/>
-    </i>
-    <i>
-      <x v="544"/>
-    </i>
-    <i>
-      <x v="545"/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="10" item="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of price" fld="1" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{23F0E937-9998-4A1D-B0C5-82C553229476}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{23F0E937-9998-4A1D-B0C5-82C553229476}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="O3:P376" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="13">
     <pivotField axis="axisRow" showAll="0">
@@ -14642,6 +12795,1853 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{98AEBD24-6BAE-4B81-BB16-353814422978}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="U21:W39" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField dataField="1" showAll="0">
+      <items count="547">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item x="368"/>
+        <item x="369"/>
+        <item x="370"/>
+        <item x="371"/>
+        <item x="372"/>
+        <item x="373"/>
+        <item x="374"/>
+        <item x="375"/>
+        <item x="376"/>
+        <item x="377"/>
+        <item x="378"/>
+        <item x="379"/>
+        <item x="380"/>
+        <item x="381"/>
+        <item x="382"/>
+        <item x="383"/>
+        <item x="384"/>
+        <item x="385"/>
+        <item x="386"/>
+        <item x="387"/>
+        <item x="388"/>
+        <item x="389"/>
+        <item x="390"/>
+        <item x="391"/>
+        <item x="392"/>
+        <item x="393"/>
+        <item x="394"/>
+        <item x="395"/>
+        <item x="396"/>
+        <item x="397"/>
+        <item x="398"/>
+        <item x="399"/>
+        <item x="400"/>
+        <item x="401"/>
+        <item x="402"/>
+        <item x="403"/>
+        <item x="404"/>
+        <item x="405"/>
+        <item x="406"/>
+        <item x="407"/>
+        <item x="408"/>
+        <item x="409"/>
+        <item x="410"/>
+        <item x="411"/>
+        <item x="412"/>
+        <item x="413"/>
+        <item x="414"/>
+        <item x="415"/>
+        <item x="416"/>
+        <item x="417"/>
+        <item x="418"/>
+        <item x="419"/>
+        <item x="420"/>
+        <item x="421"/>
+        <item x="422"/>
+        <item x="423"/>
+        <item x="424"/>
+        <item x="425"/>
+        <item x="426"/>
+        <item x="427"/>
+        <item x="428"/>
+        <item x="429"/>
+        <item x="430"/>
+        <item x="431"/>
+        <item x="432"/>
+        <item x="433"/>
+        <item x="434"/>
+        <item x="435"/>
+        <item x="436"/>
+        <item x="437"/>
+        <item x="438"/>
+        <item x="439"/>
+        <item x="440"/>
+        <item x="441"/>
+        <item x="442"/>
+        <item x="443"/>
+        <item x="444"/>
+        <item x="445"/>
+        <item x="446"/>
+        <item x="447"/>
+        <item x="448"/>
+        <item x="449"/>
+        <item x="450"/>
+        <item x="451"/>
+        <item x="452"/>
+        <item x="453"/>
+        <item x="454"/>
+        <item x="455"/>
+        <item x="456"/>
+        <item x="457"/>
+        <item x="458"/>
+        <item x="459"/>
+        <item x="460"/>
+        <item x="461"/>
+        <item x="462"/>
+        <item x="463"/>
+        <item x="464"/>
+        <item x="465"/>
+        <item x="466"/>
+        <item x="467"/>
+        <item x="468"/>
+        <item x="469"/>
+        <item x="470"/>
+        <item x="471"/>
+        <item x="472"/>
+        <item x="473"/>
+        <item x="474"/>
+        <item x="475"/>
+        <item x="476"/>
+        <item x="477"/>
+        <item x="478"/>
+        <item x="479"/>
+        <item x="480"/>
+        <item x="481"/>
+        <item x="482"/>
+        <item x="483"/>
+        <item x="484"/>
+        <item x="485"/>
+        <item x="486"/>
+        <item x="487"/>
+        <item x="488"/>
+        <item x="489"/>
+        <item x="490"/>
+        <item x="491"/>
+        <item x="492"/>
+        <item x="493"/>
+        <item x="494"/>
+        <item x="495"/>
+        <item x="496"/>
+        <item x="497"/>
+        <item x="498"/>
+        <item x="499"/>
+        <item x="500"/>
+        <item x="501"/>
+        <item x="502"/>
+        <item x="503"/>
+        <item x="504"/>
+        <item x="505"/>
+        <item x="506"/>
+        <item x="507"/>
+        <item x="508"/>
+        <item x="509"/>
+        <item x="510"/>
+        <item x="511"/>
+        <item x="512"/>
+        <item x="513"/>
+        <item x="514"/>
+        <item x="515"/>
+        <item x="516"/>
+        <item x="517"/>
+        <item x="518"/>
+        <item x="519"/>
+        <item x="520"/>
+        <item x="521"/>
+        <item x="522"/>
+        <item x="523"/>
+        <item x="524"/>
+        <item x="525"/>
+        <item x="526"/>
+        <item x="527"/>
+        <item x="528"/>
+        <item x="529"/>
+        <item x="530"/>
+        <item x="531"/>
+        <item x="532"/>
+        <item x="533"/>
+        <item x="534"/>
+        <item x="535"/>
+        <item x="536"/>
+        <item x="537"/>
+        <item x="538"/>
+        <item x="539"/>
+        <item x="540"/>
+        <item x="541"/>
+        <item x="542"/>
+        <item x="543"/>
+        <item x="544"/>
+        <item x="545"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="20">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="17">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="10"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of id" fld="0" subtotal="count" baseField="1" baseItem="3"/>
+  </dataFields>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{11695526-25E9-4E93-B54D-C5480D443BD2}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="R3:S176" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="13">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="547">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item x="368"/>
+        <item x="369"/>
+        <item x="370"/>
+        <item x="371"/>
+        <item x="372"/>
+        <item x="373"/>
+        <item x="374"/>
+        <item x="375"/>
+        <item x="376"/>
+        <item x="377"/>
+        <item x="378"/>
+        <item x="379"/>
+        <item x="380"/>
+        <item x="381"/>
+        <item x="382"/>
+        <item x="383"/>
+        <item x="384"/>
+        <item x="385"/>
+        <item x="386"/>
+        <item x="387"/>
+        <item x="388"/>
+        <item x="389"/>
+        <item x="390"/>
+        <item x="391"/>
+        <item x="392"/>
+        <item x="393"/>
+        <item x="394"/>
+        <item x="395"/>
+        <item x="396"/>
+        <item x="397"/>
+        <item x="398"/>
+        <item x="399"/>
+        <item x="400"/>
+        <item x="401"/>
+        <item x="402"/>
+        <item x="403"/>
+        <item x="404"/>
+        <item x="405"/>
+        <item x="406"/>
+        <item x="407"/>
+        <item x="408"/>
+        <item x="409"/>
+        <item x="410"/>
+        <item x="411"/>
+        <item x="412"/>
+        <item x="413"/>
+        <item x="414"/>
+        <item x="415"/>
+        <item x="416"/>
+        <item x="417"/>
+        <item x="418"/>
+        <item x="419"/>
+        <item x="420"/>
+        <item x="421"/>
+        <item x="422"/>
+        <item x="423"/>
+        <item x="424"/>
+        <item x="425"/>
+        <item x="426"/>
+        <item x="427"/>
+        <item x="428"/>
+        <item x="429"/>
+        <item x="430"/>
+        <item x="431"/>
+        <item x="432"/>
+        <item x="433"/>
+        <item x="434"/>
+        <item x="435"/>
+        <item x="436"/>
+        <item x="437"/>
+        <item x="438"/>
+        <item x="439"/>
+        <item x="440"/>
+        <item x="441"/>
+        <item x="442"/>
+        <item x="443"/>
+        <item x="444"/>
+        <item x="445"/>
+        <item x="446"/>
+        <item x="447"/>
+        <item x="448"/>
+        <item x="449"/>
+        <item x="450"/>
+        <item x="451"/>
+        <item x="452"/>
+        <item x="453"/>
+        <item x="454"/>
+        <item x="455"/>
+        <item x="456"/>
+        <item x="457"/>
+        <item x="458"/>
+        <item x="459"/>
+        <item x="460"/>
+        <item x="461"/>
+        <item x="462"/>
+        <item x="463"/>
+        <item x="464"/>
+        <item x="465"/>
+        <item x="466"/>
+        <item x="467"/>
+        <item x="468"/>
+        <item x="469"/>
+        <item x="470"/>
+        <item x="471"/>
+        <item x="472"/>
+        <item x="473"/>
+        <item x="474"/>
+        <item x="475"/>
+        <item x="476"/>
+        <item x="477"/>
+        <item x="478"/>
+        <item x="479"/>
+        <item x="480"/>
+        <item x="481"/>
+        <item x="482"/>
+        <item x="483"/>
+        <item x="484"/>
+        <item x="485"/>
+        <item x="486"/>
+        <item x="487"/>
+        <item x="488"/>
+        <item x="489"/>
+        <item x="490"/>
+        <item x="491"/>
+        <item x="492"/>
+        <item x="493"/>
+        <item x="494"/>
+        <item x="495"/>
+        <item x="496"/>
+        <item x="497"/>
+        <item x="498"/>
+        <item x="499"/>
+        <item x="500"/>
+        <item x="501"/>
+        <item x="502"/>
+        <item x="503"/>
+        <item x="504"/>
+        <item x="505"/>
+        <item x="506"/>
+        <item x="507"/>
+        <item x="508"/>
+        <item x="509"/>
+        <item x="510"/>
+        <item x="511"/>
+        <item x="512"/>
+        <item x="513"/>
+        <item x="514"/>
+        <item x="515"/>
+        <item x="516"/>
+        <item x="517"/>
+        <item x="518"/>
+        <item x="519"/>
+        <item x="520"/>
+        <item x="521"/>
+        <item x="522"/>
+        <item x="523"/>
+        <item x="524"/>
+        <item x="525"/>
+        <item x="526"/>
+        <item x="527"/>
+        <item x="528"/>
+        <item x="529"/>
+        <item x="530"/>
+        <item x="531"/>
+        <item x="532"/>
+        <item x="533"/>
+        <item x="534"/>
+        <item x="535"/>
+        <item x="536"/>
+        <item x="537"/>
+        <item x="538"/>
+        <item x="539"/>
+        <item x="540"/>
+        <item x="541"/>
+        <item x="542"/>
+        <item x="543"/>
+        <item x="544"/>
+        <item x="545"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="20">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="173">
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i>
+      <x v="62"/>
+    </i>
+    <i>
+      <x v="65"/>
+    </i>
+    <i>
+      <x v="66"/>
+    </i>
+    <i>
+      <x v="67"/>
+    </i>
+    <i>
+      <x v="68"/>
+    </i>
+    <i>
+      <x v="69"/>
+    </i>
+    <i>
+      <x v="77"/>
+    </i>
+    <i>
+      <x v="79"/>
+    </i>
+    <i>
+      <x v="80"/>
+    </i>
+    <i>
+      <x v="85"/>
+    </i>
+    <i>
+      <x v="87"/>
+    </i>
+    <i>
+      <x v="92"/>
+    </i>
+    <i>
+      <x v="93"/>
+    </i>
+    <i>
+      <x v="94"/>
+    </i>
+    <i>
+      <x v="100"/>
+    </i>
+    <i>
+      <x v="106"/>
+    </i>
+    <i>
+      <x v="112"/>
+    </i>
+    <i>
+      <x v="113"/>
+    </i>
+    <i>
+      <x v="114"/>
+    </i>
+    <i>
+      <x v="115"/>
+    </i>
+    <i>
+      <x v="117"/>
+    </i>
+    <i>
+      <x v="119"/>
+    </i>
+    <i>
+      <x v="127"/>
+    </i>
+    <i>
+      <x v="128"/>
+    </i>
+    <i>
+      <x v="129"/>
+    </i>
+    <i>
+      <x v="144"/>
+    </i>
+    <i>
+      <x v="146"/>
+    </i>
+    <i>
+      <x v="156"/>
+    </i>
+    <i>
+      <x v="160"/>
+    </i>
+    <i>
+      <x v="166"/>
+    </i>
+    <i>
+      <x v="168"/>
+    </i>
+    <i>
+      <x v="177"/>
+    </i>
+    <i>
+      <x v="189"/>
+    </i>
+    <i>
+      <x v="191"/>
+    </i>
+    <i>
+      <x v="193"/>
+    </i>
+    <i>
+      <x v="201"/>
+    </i>
+    <i>
+      <x v="202"/>
+    </i>
+    <i>
+      <x v="221"/>
+    </i>
+    <i>
+      <x v="225"/>
+    </i>
+    <i>
+      <x v="226"/>
+    </i>
+    <i>
+      <x v="228"/>
+    </i>
+    <i>
+      <x v="230"/>
+    </i>
+    <i>
+      <x v="241"/>
+    </i>
+    <i>
+      <x v="253"/>
+    </i>
+    <i>
+      <x v="257"/>
+    </i>
+    <i>
+      <x v="269"/>
+    </i>
+    <i>
+      <x v="272"/>
+    </i>
+    <i>
+      <x v="274"/>
+    </i>
+    <i>
+      <x v="275"/>
+    </i>
+    <i>
+      <x v="276"/>
+    </i>
+    <i>
+      <x v="281"/>
+    </i>
+    <i>
+      <x v="282"/>
+    </i>
+    <i>
+      <x v="286"/>
+    </i>
+    <i>
+      <x v="301"/>
+    </i>
+    <i>
+      <x v="305"/>
+    </i>
+    <i>
+      <x v="308"/>
+    </i>
+    <i>
+      <x v="309"/>
+    </i>
+    <i>
+      <x v="312"/>
+    </i>
+    <i>
+      <x v="315"/>
+    </i>
+    <i>
+      <x v="317"/>
+    </i>
+    <i>
+      <x v="319"/>
+    </i>
+    <i>
+      <x v="320"/>
+    </i>
+    <i>
+      <x v="321"/>
+    </i>
+    <i>
+      <x v="322"/>
+    </i>
+    <i>
+      <x v="323"/>
+    </i>
+    <i>
+      <x v="325"/>
+    </i>
+    <i>
+      <x v="326"/>
+    </i>
+    <i>
+      <x v="327"/>
+    </i>
+    <i>
+      <x v="328"/>
+    </i>
+    <i>
+      <x v="330"/>
+    </i>
+    <i>
+      <x v="331"/>
+    </i>
+    <i>
+      <x v="336"/>
+    </i>
+    <i>
+      <x v="337"/>
+    </i>
+    <i>
+      <x v="338"/>
+    </i>
+    <i>
+      <x v="344"/>
+    </i>
+    <i>
+      <x v="356"/>
+    </i>
+    <i>
+      <x v="357"/>
+    </i>
+    <i>
+      <x v="359"/>
+    </i>
+    <i>
+      <x v="360"/>
+    </i>
+    <i>
+      <x v="361"/>
+    </i>
+    <i>
+      <x v="364"/>
+    </i>
+    <i>
+      <x v="366"/>
+    </i>
+    <i>
+      <x v="370"/>
+    </i>
+    <i>
+      <x v="371"/>
+    </i>
+    <i>
+      <x v="372"/>
+    </i>
+    <i>
+      <x v="373"/>
+    </i>
+    <i>
+      <x v="374"/>
+    </i>
+    <i>
+      <x v="375"/>
+    </i>
+    <i>
+      <x v="376"/>
+    </i>
+    <i>
+      <x v="377"/>
+    </i>
+    <i>
+      <x v="379"/>
+    </i>
+    <i>
+      <x v="380"/>
+    </i>
+    <i>
+      <x v="381"/>
+    </i>
+    <i>
+      <x v="382"/>
+    </i>
+    <i>
+      <x v="387"/>
+    </i>
+    <i>
+      <x v="389"/>
+    </i>
+    <i>
+      <x v="391"/>
+    </i>
+    <i>
+      <x v="392"/>
+    </i>
+    <i>
+      <x v="399"/>
+    </i>
+    <i>
+      <x v="400"/>
+    </i>
+    <i>
+      <x v="401"/>
+    </i>
+    <i>
+      <x v="402"/>
+    </i>
+    <i>
+      <x v="408"/>
+    </i>
+    <i>
+      <x v="409"/>
+    </i>
+    <i>
+      <x v="411"/>
+    </i>
+    <i>
+      <x v="412"/>
+    </i>
+    <i>
+      <x v="413"/>
+    </i>
+    <i>
+      <x v="415"/>
+    </i>
+    <i>
+      <x v="416"/>
+    </i>
+    <i>
+      <x v="418"/>
+    </i>
+    <i>
+      <x v="420"/>
+    </i>
+    <i>
+      <x v="421"/>
+    </i>
+    <i>
+      <x v="429"/>
+    </i>
+    <i>
+      <x v="434"/>
+    </i>
+    <i>
+      <x v="435"/>
+    </i>
+    <i>
+      <x v="439"/>
+    </i>
+    <i>
+      <x v="443"/>
+    </i>
+    <i>
+      <x v="444"/>
+    </i>
+    <i>
+      <x v="447"/>
+    </i>
+    <i>
+      <x v="451"/>
+    </i>
+    <i>
+      <x v="452"/>
+    </i>
+    <i>
+      <x v="456"/>
+    </i>
+    <i>
+      <x v="457"/>
+    </i>
+    <i>
+      <x v="465"/>
+    </i>
+    <i>
+      <x v="478"/>
+    </i>
+    <i>
+      <x v="481"/>
+    </i>
+    <i>
+      <x v="485"/>
+    </i>
+    <i>
+      <x v="494"/>
+    </i>
+    <i>
+      <x v="500"/>
+    </i>
+    <i>
+      <x v="501"/>
+    </i>
+    <i>
+      <x v="503"/>
+    </i>
+    <i>
+      <x v="507"/>
+    </i>
+    <i>
+      <x v="508"/>
+    </i>
+    <i>
+      <x v="512"/>
+    </i>
+    <i>
+      <x v="516"/>
+    </i>
+    <i>
+      <x v="517"/>
+    </i>
+    <i>
+      <x v="518"/>
+    </i>
+    <i>
+      <x v="520"/>
+    </i>
+    <i>
+      <x v="521"/>
+    </i>
+    <i>
+      <x v="522"/>
+    </i>
+    <i>
+      <x v="524"/>
+    </i>
+    <i>
+      <x v="525"/>
+    </i>
+    <i>
+      <x v="526"/>
+    </i>
+    <i>
+      <x v="527"/>
+    </i>
+    <i>
+      <x v="528"/>
+    </i>
+    <i>
+      <x v="529"/>
+    </i>
+    <i>
+      <x v="530"/>
+    </i>
+    <i>
+      <x v="531"/>
+    </i>
+    <i>
+      <x v="534"/>
+    </i>
+    <i>
+      <x v="535"/>
+    </i>
+    <i>
+      <x v="536"/>
+    </i>
+    <i>
+      <x v="537"/>
+    </i>
+    <i>
+      <x v="538"/>
+    </i>
+    <i>
+      <x v="541"/>
+    </i>
+    <i>
+      <x v="542"/>
+    </i>
+    <i>
+      <x v="543"/>
+    </i>
+    <i>
+      <x v="544"/>
+    </i>
+    <i>
+      <x v="545"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="10" item="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of price" fld="1" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="housing" displayName="housing" ref="A1:M547" totalsRowShown="0">
   <autoFilter ref="A1:M547" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
@@ -14985,7 +14985,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -37470,9 +37470,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36743773-9883-4AF8-8C8D-3FA0E53E370A}">
   <dimension ref="A1:X547"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A506" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A547" sqref="A547"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
